--- a/bots/crawl_ch/output/toilet_coop_2022-07-22.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-07-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,50 +531,50 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6283679</t>
+          <t>6497243</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen</t>
+          <t>Super Soft WC-Papier Sensation 3-lagig 16 Rollen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-camomille-weiss-4-lagig-6-rollen/p/6283679</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-3-lagig-16-rollen/p/6497243</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6Rol</t>
+          <t>16Rol</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.70/1Rol</t>
+          <t>0.81/1Rol</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -599,55 +599,55 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen 4.20 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Sensation 3-lagig 16 Rollen 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6346771</t>
+          <t>6283679</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 16 Rollen</t>
+          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-16-rollen/p/6346771</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-camomille-weiss-4-lagig-6-rollen/p/6283679</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16Rol</t>
+          <t>6Rol</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.97/1Rol</t>
+          <t>0.70/1Rol</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -672,41 +672,41 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 16 Rollen 15.50 Schweizer Franken</t>
+          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4489512</t>
+          <t>6346771</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 16 Rollen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-24-rollen/p/4489512</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-16-rollen/p/6346771</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24Rol</t>
+          <t>16Rol</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -715,12 +715,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.48/1Rol</t>
+          <t>0.97/1Rol</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -745,12 +745,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen 50% Aktion 11.60 Schweizer Franken statt 23.25 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 16 Rollen 15.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -823,36 +823,36 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6497242</t>
+          <t>6568452</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4Rol</t>
+          <t>4x 50ST</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -861,71 +861,71 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.81/1Rol</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST 43% Aktion 6.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6568452</t>
+          <t>6497242</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 4x  50ST</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4x 50ST</t>
+          <t>4Rol</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -934,42 +934,42 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.81/1Rol</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 4x  50ST 43% Aktion 6.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1026,194 +1026,194 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6873015</t>
+          <t>6695141</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12Rol</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>140ST</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.91/1Rol</t>
+          <t>0.02/1ST</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6695141</t>
+          <t>6873015</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>140ST</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
+          <t>12Rol</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.02/1ST</t>
+          <t>0.91/1Rol</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.30 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6724076</t>
+          <t>6691348</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
+          <t>Super Soft Aloe Vera feucht FSC 4x  60ST</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>40ST</t>
+          <t>4x 60ST</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Duckies</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1238,55 +1238,55 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
+          <t>Super Soft Aloe Vera feucht FSC 4x  60ST 43% Aktion 6.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6691348</t>
+          <t>6724076</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 4x  60ST</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4x 60ST</t>
+          <t>40ST</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Duckies</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1311,12 +1311,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 4x  60ST 43% Aktion 6.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1462,137 +1462,137 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6346813</t>
+          <t>6834305</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9Rol</t>
+          <t>192BLT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.98/1Rol</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6834305</t>
+          <t>6346813</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>192BLT</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Zewa</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.98/1Rol</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
@@ -2473,48 +2473,50 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3754633</t>
+          <t>6800946</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 30x9 Stück</t>
+          <t>Hipp Natural zart duftend 3x48 Stück</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-sanft-frei-30x9-stueck/p/3754633</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30ST</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>144ST</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Hipp</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.27/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2524,7 +2526,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2534,60 +2536,60 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher sanft &amp;amp; frei 30x9 Stück 32% Aktion 7.95 Schweizer Franken statt 11.85 Schweizer Franken</t>
+          <t>Hipp Natural zart duftend 3x48 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6800946</t>
+          <t>6868354</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück</t>
+          <t>Tempo Bamboo Eco</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>144ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hipp</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2597,7 +2599,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2607,112 +2609,94 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück 9.95 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6868354</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
+          <t>200BLT</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0.33/1ST</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>6996029</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Tela Lux 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>200BLT</t>
+          <t>6Rol</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2726,140 +2710,158 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.93/1Rol</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6996029</t>
+          <t>6727164</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen</t>
+          <t>Wetties Allzwecktücher 80Stück</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6Rol</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>80ST</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.93/1Rol</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
+          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6727164</t>
+          <t>6636712</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Wetties Allzwecktücher 80Stück</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>42ST</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2869,7 +2871,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2884,156 +2886,83 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6636712</t>
+          <t>6996129</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher</t>
+          <t>Tela Futura 3-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-3-lagig-9-rollen/p/6996129</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>42ST</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>2</v>
-      </c>
+          <t>9Rol</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.93/1Rol</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
+          <t>Tela Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-22 07:03:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>6996129</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Tela Futura 3-lagig 9 Rollen</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-futura-3-lagig-9-rollen/p/6996129</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>9Rol</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Tela</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0.93/1Rol</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Tela Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>2022-07-22 07:03:08</t>
+          <t>2022-07-22 20:57:00</t>
         </is>
       </c>
     </row>
